--- a/results/mp/logistic/corona/confidence/84/desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
@@ -79,75 +85,90 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>great</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -157,61 +178,58 @@
     <t>well</t>
   </si>
   <si>
-    <t>save</t>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>your</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>for</t>
+    <t>corona</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>of</t>
   </si>
 </sst>
 </file>
@@ -569,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8321917808219178</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9666666666666667</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7837837837837838</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -756,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -809,16 +827,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6031746031746031</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C7">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -888,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5686274509803921</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8981723237597912</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L8">
-        <v>344</v>
+        <v>101</v>
       </c>
       <c r="M8">
-        <v>344</v>
+        <v>101</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5678294573643411</v>
+        <v>0.5717054263565892</v>
       </c>
       <c r="C9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8928571428571429</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,37 +1006,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5254237288135594</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="C10">
         <v>31</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8837209302325582</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3288590604026846</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8793103448275862</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2638888888888889</v>
+        <v>0.4161073825503356</v>
       </c>
       <c r="C12">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8717948717948718</v>
+        <v>0.8671875</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1547619047619048</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.8671875</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.07506702412868632</v>
+        <v>0.325</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>345</v>
+        <v>243</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.8591549295774648</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L14">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,28 +1256,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01098901098901099</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3060</v>
+        <v>212</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>0.8584905660377359</v>
@@ -1288,37 +1306,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006460454189506656</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>0.63</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
-        <v>0.37</v>
+        <v>0.97</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>5075</v>
+        <v>334</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.85</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L16">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,412 +1348,532 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.01876415399547072</v>
+      </c>
+      <c r="C17">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>0.22</v>
+      </c>
+      <c r="F17">
+        <v>0.78</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3033</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>0.84375</v>
+      </c>
+      <c r="L17">
+        <v>135</v>
+      </c>
+      <c r="M17">
+        <v>135</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.0146295422369042</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>0.44</v>
+      </c>
+      <c r="F18">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2088</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L17">
+      <c r="B19">
+        <v>0.008620689655172414</v>
+      </c>
+      <c r="C19">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <v>0.58</v>
+      </c>
+      <c r="F19">
+        <v>0.42</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>5060</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>0.813953488372093</v>
+      </c>
+      <c r="L19">
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>35</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.006755182855811786</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>64</v>
+      </c>
+      <c r="E20">
+        <v>0.55</v>
+      </c>
+      <c r="F20">
+        <v>0.45</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>4264</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.8125</v>
+      </c>
+      <c r="L20">
         <v>39</v>
       </c>
-      <c r="M17">
+      <c r="M20">
         <v>39</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.006124948958758677</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>128</v>
+      </c>
+      <c r="E21">
+        <v>0.77</v>
+      </c>
+      <c r="F21">
+        <v>0.23</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>4868</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.8</v>
+      </c>
+      <c r="L21">
+        <v>28</v>
+      </c>
+      <c r="M21">
+        <v>28</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L22">
+        <v>31</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>0.97</v>
+      </c>
+      <c r="O22">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="L18">
-        <v>68</v>
-      </c>
-      <c r="M18">
-        <v>68</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23">
+        <v>0.78</v>
+      </c>
+      <c r="L23">
         <v>39</v>
       </c>
-      <c r="K19">
-        <v>0.82</v>
-      </c>
-      <c r="L19">
+      <c r="M23">
+        <v>39</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="L24">
+        <v>48</v>
+      </c>
+      <c r="M24">
+        <v>48</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25">
+        <v>0.7294117647058823</v>
+      </c>
+      <c r="L25">
+        <v>248</v>
+      </c>
+      <c r="M25">
+        <v>248</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>0.7220338983050848</v>
+      </c>
+      <c r="L26">
+        <v>213</v>
+      </c>
+      <c r="M26">
+        <v>213</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27">
+        <v>0.7196652719665272</v>
+      </c>
+      <c r="L27">
+        <v>172</v>
+      </c>
+      <c r="M27">
+        <v>172</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L28">
+        <v>64</v>
+      </c>
+      <c r="M28">
+        <v>64</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29">
+        <v>0.6404494382022472</v>
+      </c>
+      <c r="L29">
+        <v>57</v>
+      </c>
+      <c r="M29">
+        <v>57</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="L30">
         <v>41</v>
       </c>
-      <c r="M19">
+      <c r="M30">
         <v>41</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L31">
         <v>40</v>
       </c>
-      <c r="K20">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L20">
+      <c r="M31">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32">
+        <v>0.5686274509803921</v>
+      </c>
+      <c r="L32">
         <v>29</v>
       </c>
-      <c r="M20">
+      <c r="M32">
         <v>29</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>0.7936507936507936</v>
-      </c>
-      <c r="L21">
-        <v>50</v>
-      </c>
-      <c r="M21">
-        <v>50</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>0.7529411764705882</v>
-      </c>
-      <c r="L22">
-        <v>256</v>
-      </c>
-      <c r="M22">
-        <v>256</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>0.75</v>
-      </c>
-      <c r="L23">
-        <v>36</v>
-      </c>
-      <c r="M23">
-        <v>36</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>0.7380952380952381</v>
-      </c>
-      <c r="L24">
-        <v>217</v>
-      </c>
-      <c r="M24">
-        <v>218</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25">
-        <v>0.7238493723849372</v>
-      </c>
-      <c r="L25">
-        <v>173</v>
-      </c>
-      <c r="M25">
-        <v>173</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L26">
-        <v>68</v>
-      </c>
-      <c r="M26">
-        <v>68</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>25</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.676923076923077</v>
-      </c>
-      <c r="L28">
-        <v>44</v>
-      </c>
-      <c r="M28">
-        <v>44</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.625</v>
-      </c>
-      <c r="L29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.6142857142857143</v>
-      </c>
-      <c r="L30">
-        <v>43</v>
-      </c>
-      <c r="M30">
-        <v>43</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31">
-        <v>0.6067415730337079</v>
-      </c>
-      <c r="L31">
-        <v>54</v>
-      </c>
-      <c r="M31">
-        <v>54</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32">
-        <v>0.5952380952380952</v>
-      </c>
-      <c r="L32">
-        <v>25</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -1746,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.5882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1772,47 +1910,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.5128205128205128</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.4794520547945205</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1824,293 +1962,371 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.04761904761904762</v>
+        <v>0.421875</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M36">
         <v>27</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>520</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.04340567612687813</v>
+        <v>0.06066176470588235</v>
       </c>
       <c r="L37">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>1146</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.0315040650406504</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N38">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>953</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.01919458035378246</v>
+        <v>0.04096989966555184</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M39">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="N39">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="O39">
-        <v>0.24</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2606</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.01826196473551637</v>
+        <v>0.03353658536585366</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N40">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="O40">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1559</v>
+        <v>951</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.01437371663244353</v>
+        <v>0.02012578616352201</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N41">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="O41">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2400</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="K42">
-        <v>0.01380608722936931</v>
+        <v>0.01973419250906162</v>
       </c>
       <c r="L42">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="M42">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="N42">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="O42">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3143</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.01380175658720201</v>
+        <v>0.01881821603312006</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="N43">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="O43">
-        <v>0.07999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2358</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.01110678098207327</v>
+        <v>0.01664572864321608</v>
       </c>
       <c r="L44">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M44">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N44">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="O44">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>5075</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.008443908323281062</v>
+        <v>0.01528294093349855</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N45">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="O45">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>4932</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.006498027384543977</v>
+        <v>0.01383067896060352</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M46">
+        <v>41</v>
+      </c>
+      <c r="N46">
+        <v>0.8</v>
+      </c>
+      <c r="O46">
+        <v>0.2</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47">
+        <v>0.01191173598906464</v>
+      </c>
+      <c r="L47">
+        <v>61</v>
+      </c>
+      <c r="M47">
+        <v>105</v>
+      </c>
+      <c r="N47">
+        <v>0.58</v>
+      </c>
+      <c r="O47">
+        <v>0.42</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48">
+        <v>0.01060670343657191</v>
+      </c>
+      <c r="L48">
+        <v>25</v>
+      </c>
+      <c r="M48">
         <v>47</v>
       </c>
-      <c r="N46">
-        <v>0.6</v>
-      </c>
-      <c r="O46">
-        <v>0.4</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>4281</v>
+      <c r="N48">
+        <v>0.53</v>
+      </c>
+      <c r="O48">
+        <v>0.47</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>0.008141428239125378</v>
+      </c>
+      <c r="L49">
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <v>64</v>
+      </c>
+      <c r="N49">
+        <v>0.55</v>
+      </c>
+      <c r="O49">
+        <v>0.45</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4264</v>
       </c>
     </row>
   </sheetData>
